--- a/_documentation/FOR_Born/VC A DATA.xlsx
+++ b/_documentation/FOR_Born/VC A DATA.xlsx
@@ -8987,8 +8987,8 @@
   <sheetPr/>
   <dimension ref="A1:GJ385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -74612,7 +74612,7 @@
     <hyperlink ref="M1" r:id="rId9" display="frmer_prof_@_basic_Info_@_bday_not_sure"/>
     <hyperlink ref="N1" r:id="rId10" display="frmer_prof_@_basic_Info_@_civil_status"/>
     <hyperlink ref="O1" r:id="rId11" display="frmer_prof_@_hh_Head_Info_@_is_head_og_household" tooltip="mailto:frmer_prof_@_hh_Head_Info_@_is_head_og_household"/>
-    <hyperlink ref="P1" r:id="rId12" display="frmer_prof_@_hh_Head_Info_@_name_head_household"/>
+    <hyperlink ref="P1" r:id="rId12" display="frmer_prof_@_hh_Head_Info_@_name_head_household" tooltip="mailto:frmer_prof_@_hh_Head_Info_@_name_head_household"/>
     <hyperlink ref="Q1" r:id="rId13" display="frmer_prof_@_hh_Head_Info_@_head_hh_name"/>
     <hyperlink ref="R1" r:id="rId14" display="frmer_prof_@_hh_Head_Info_@_head_hh_relationship"/>
     <hyperlink ref="S1" r:id="rId15" display="frmer_prof_@_hh_Head_Info_@_head_hh_sex"/>
